--- a/src/main/resources/file/1-16_updated.xlsx
+++ b/src/main/resources/file/1-16_updated.xlsx
@@ -25,7 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="3">
+  <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>test 98</t>
+  </si>
   <si>
     <t/>
   </si>
@@ -537,10 +543,10 @@
       <c r="B1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="C1" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D1" s="1"/>
+      <c r="C1" s="3"/>
+      <c r="D1" t="n" s="0">
+        <v>1.0</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -553,17 +559,19 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="W1" t="n" s="0">
+        <v>98.0</v>
+      </c>
       <c r="X1" s="1"/>
       <c r="Y1" t="s" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" t="s" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -582,17 +590,17 @@
       <c r="W2" s="1"/>
       <c r="X2" s="7"/>
       <c r="Y2" t="s" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" t="s" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="0"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -605,17 +613,17 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="W3" s="0"/>
       <c r="X3" s="9"/>
       <c r="Y3" t="s" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" t="s" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
@@ -634,17 +642,17 @@
       <c r="W4" s="1"/>
       <c r="X4" s="2"/>
       <c r="Y4" t="s" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" t="s" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="0"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -657,17 +665,17 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="W5" s="0"/>
       <c r="X5" s="10"/>
       <c r="Y5" t="s" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" t="s" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="1"/>
@@ -687,17 +695,17 @@
       <c r="W6" s="1"/>
       <c r="X6" s="2"/>
       <c r="Y6" t="s" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" t="s" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="0"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -711,17 +719,17 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="W7" s="0"/>
       <c r="X7" s="1"/>
       <c r="Y7" t="s" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" t="s" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -741,17 +749,17 @@
       <c r="W8" s="1"/>
       <c r="X8" s="7"/>
       <c r="Y8" t="s" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="12"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" t="s" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="0"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -765,17 +773,17 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+      <c r="W9" s="0"/>
       <c r="X9" s="10"/>
       <c r="Y9" t="s" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" t="s" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -795,17 +803,17 @@
       <c r="W10" s="1"/>
       <c r="X10" s="2"/>
       <c r="Y10" t="s" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" t="s" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="0"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -821,17 +829,17 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="W11" s="0"/>
       <c r="X11" s="9"/>
       <c r="Y11" t="s" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" t="s" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="1"/>
@@ -851,17 +859,17 @@
       <c r="W12" s="1"/>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" t="s" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="0"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -875,17 +883,17 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
+      <c r="W13" s="0"/>
       <c r="X13" s="1"/>
       <c r="Y13" t="s" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" t="s" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="1"/>
@@ -905,17 +913,17 @@
       <c r="W14" s="1"/>
       <c r="X14" s="7"/>
       <c r="Y14" t="s" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" t="s" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="0"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -929,17 +937,17 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="W15" s="0"/>
       <c r="X15" s="9"/>
       <c r="Y15" t="s" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" t="s" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -951,7 +959,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z16" s="12"/>
     </row>
